--- a/biology/Botanique/A.Braun/A.Braun.xlsx
+++ b/biology/Botanique/A.Braun/A.Braun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Karl (ou Carl) Heinrich Braun (prénom usuel : Alexander), né le 10 mai 1805 à Ratisbonne et mort le 29 mars 1877 à Berlin, est un botaniste et illustrateur naturaliste bavarois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1824 à 1827 Braun étudie la médecine et les sciences naturelles, particulièrement la botanique, à Heidelberg. Il y établit avec Karl Friedrich Schimper, Louis Agassiz et Georg Engelmann des contacts qu'il maintiendra toute sa vie. En 1830 il devient membre de la Leopoldina. Il poursuit ses études à Munich (jusqu'en 1831) puis à Paris (1832).
 Il enseigne la botanique à Fribourg-en-Brisgau de 1846 à 1850 et est en même temps directeur du jardin botanique de la ville (de) ; en 1850 il est nommé professeur de botanique à l'université de Giessen, avant d'obtenir une chaire de botanique à l'université de Berlin et d'y diriger le jardin botanique de 1851 à 1877. En 1869, il est membre fondateur de la Société berlinoise d'anthropologie, d'ethnologie et de préhistoire ; il en sera le vice-président jusqu'à sa mort. Il est le beau-frère de Louis Agassiz et le beau-père de Georg Heinrich Mettenius.
@@ -544,9 +558,11 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Profondément influencé par la Naturphilosophie, il étudie la morphologie végétale, devient l'un des principaux représentants de la morphologie comparative, définit en 1831 la théorie de la phyllotaxie en spirale et établit le lien entre cette dernière et la suite de Fibonacci[1]. Il continue ainsi le travail de Karl Friedrich Schimper.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Profondément influencé par la Naturphilosophie, il étudie la morphologie végétale, devient l'un des principaux représentants de la morphologie comparative, définit en 1831 la théorie de la phyllotaxie en spirale et établit le lien entre cette dernière et la suite de Fibonacci. Il continue ainsi le travail de Karl Friedrich Schimper.
 Ses recherches au microscope sur les cryptogames sont à la source d'importantes contributions à la théorie cellulaire.
 Braun était un partisan du vitalisme.
 </t>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Braun a écrit en allemand et en latin.
 1831 : Vergleichende Untersuchung über die Ordnung der Schuppen an den Tannenzapfen als Einleitung zur Untersuchung der Blattstellung überhaupt — D'abord paru dans les Nova acta physico-medica de la Leopoldina
@@ -609,10 +627,44 @@
 1875 : Botanische Abhandlungen aus dem Gebiet der Morphologie und Physiologie — Directeur de publication : Johannes von Hanstein (de)
 En ligne : vol. 2
 1876 : Bemerkungen über einige Cycadeen
-1877 : Die Pflanzenreste des ägyptischen Museums in Berlin[3]
-1881 : Fragmente einer Monographie der Characeen — Posthume. Directeur de publication : Otto Nordstedt
-Liste d'articles
-Actes de la Leopoldina, mai 1877</t>
+1877 : Die Pflanzenreste des ägyptischen Museums in Berlin
+1881 : Fragmente einer Monographie der Characeen — Posthume. Directeur de publication : Otto Nordstedt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A.Braun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A.Braun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Actes de la Leopoldina, mai 1877</t>
         </is>
       </c>
     </row>
